--- a/ValueSet-ValueSet-R5-item-type-for-R4.xlsx
+++ b/ValueSet-ValueSet-R5-item-type-for-R4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,25 +472,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>34</v>
       </c>
     </row>
@@ -501,7 +493,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -553,29 +545,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ValueSet-ValueSet-R5-item-type-for-R4.xlsx
+++ b/ValueSet-ValueSet-R5-item-type-for-R4.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
